--- a/docs/UAT-TEST-SET.xlsx
+++ b/docs/UAT-TEST-SET.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,36 +64,13 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF00B050"/>
-      <sz val="10"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="6">
@@ -117,18 +94,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2B5F8A"/>
-        <bgColor rgb="FF2B5F8A"/>
+        <fgColor rgb="002B5F8A"/>
+        <bgColor rgb="002B5F8A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E79"/>
-        <bgColor rgb="FF1F4E79"/>
+        <fgColor rgb="001F4E79"/>
+        <bgColor rgb="001F4E79"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -152,9 +129,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -167,63 +173,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -245,49 +204,35 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -307,32 +252,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="00C6EFCE"/>
+          <bgColor rgb="00C6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,9 +629,9 @@
   </sheetPr>
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -713,7 +642,7 @@
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="26.83203125" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="32.33203125" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
@@ -775,19 +704,17 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="17" t="inlineStr">
-        <is>
-          <t>Section 1: Authentication</t>
-        </is>
-      </c>
-      <c r="B7" s="22" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="22" t="n"/>
-      <c r="F7" s="22" t="n"/>
-      <c r="G7" s="22" t="n"/>
-      <c r="H7" s="22" t="n"/>
-      <c r="I7" s="22" t="n"/>
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>Section 1: Authentication (Updated: Admin-Generated Codes)</t>
+        </is>
+      </c>
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -815,7 +742,7 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
         <is>
           <t>Date Tested</t>
         </is>
@@ -825,12 +752,12 @@
           <t>Notes</t>
         </is>
       </c>
-      <c r="H8" s="13" t="inlineStr">
+      <c r="H8" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I8" s="15" t="inlineStr">
+      <c r="I8" s="19" t="inlineStr">
         <is>
           <t>Retest Date</t>
         </is>
@@ -844,7 +771,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Login page displays on first visit</t>
+          <t>Login page displays correctly</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -854,14 +781,32 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Login page shows with "Propel Onboarding" title, email input, 6-digit code input, and "Sign in" button</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n"/>
+          <t>Login page shows "Propel Onboarding" title, email input, 6-digit code input, "Sign in" button</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="F9" s="20" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="16" t="n"/>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>[ROUND 1 (Magic Link) - see below]
+Initial Access Issue: First attempt loaded an old deployment. Cleared cache and reloaded — displayed correctly after that.
+UI Fixes Needed:
+1.  "Providence Health" text — Currently black text on a blue background, making it unreadable. Needs a color update for contrast/readability.
+2.  Icon placeholder — There's what appears to be a broken icon or placeholder next to "Providence Health." Remove it.
+3.  Text update — Change "Providence Health" to just "Providence."
+4.  Tagline update — Change "Streamline setup for genetic testing programs" to "Streamline setup for EICI program."</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
+        <is>
+          <t>RETEST</t>
+        </is>
+      </c>
+      <c r="I9" s="20" t="n"/>
     </row>
     <row r="10" ht="105" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
@@ -884,11 +829,25 @@
           <t>Button is disabled until 6-digit code is entered</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="F10" s="20" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="16" t="n"/>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>[ROUND 1 (Magic Link) - see below]
+Test Actions Performed: Entered Providence email (glen.a.lewis@providence.org) and clicked "Send."
+Results:"Check your email for the Magic Link" confirmation displayed with green success message. PASS.</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>RETEST</t>
+        </is>
+      </c>
+      <c r="I10" s="20" t="n"/>
     </row>
     <row r="11" ht="90" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
@@ -903,7 +862,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Enter an invalid email (e.g., "notanemail"), enter code, click "Sign in"</t>
+          <t>Enter invalid email, enter code, click "Sign in"</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -911,13 +870,26 @@
           <t>Browser validation prevents submission OR error message displays</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="F11" s="20" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="409.5" customHeight="1">
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>[ROUND 1 (Magic Link) - see below]
+Browser recognized incomplete email input and displayed prompts indicating what was required. Validation checked in real-time as each character was entered, continuing to flag the email as incomplete until fully formed. PASS.</t>
+        </is>
+      </c>
+      <c r="H11" s="18" t="inlineStr">
+        <is>
+          <t>RETEST</t>
+        </is>
+      </c>
+      <c r="I11" s="20" t="n"/>
+    </row>
+    <row r="12" ht="409.6" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>1.4</t>
@@ -930,7 +902,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Enter email and valid 6-digit code (from admin), click "Sign in"</t>
+          <t>Enter email + valid 6-digit code (from admin), click "Sign in"</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -938,12 +910,39 @@
           <t>User sees loading spinner, then form wizard appears</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
       <c r="F12" s="20" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="16" t="n"/>
-      <c r="J12" s="11" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>[ROUND 1 (Magic Link) - see below]
+Test Actions Performed: Completed full Magic Link sign-in flow after submitting email.
+Results:
+Email 1 — "Confirm Your Sign Up" Received email with "Follow this link to confirm your user" prompt. Clicked "Confirm Email." Redirected back to login page. PASS.
+Second Sign-In Attempt Re-entered email on login page. Submitted successfully.
+Email 2 — "Signing In to Propel Health Portal" Received email with "Click the button below to sign in." Clicked "Sign In." Redirected back to login page instead of authenticating into the portal. FAIL.
+DEFECT: Magic Link Sign-In Does Not Authenticate
+Severity: High
+Steps to Reproduce:
+1.  Enter email on login page and send Magic Link
+2.  Receive and click "Confirm Email" in first email
+3.  Re-enter email on login page
+4.  Receive and click "Sign In" in second email
+5.  Observe: redirected back to login page — never authenticated into the portal
+Expected: Clicking "Sign In" in the second email should authenticate the user and land them inside the portal.
+Actual: User is returned to the login page with no authentication.</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
+        <is>
+          <t>RETEST</t>
+        </is>
+      </c>
+      <c r="I12" s="20" t="n"/>
+      <c r="J12" s="13" t="inlineStr">
         <is>
           <t>UX Improvement: First-Time Double Sign-In Experience
 Priority: Medium
@@ -953,7 +952,7 @@
 2. If the double sign-in must stay — Add clear on-screen messaging after the user clicks "Confirm Email" explaining that they'll need to sign in one more time, and that a second email is on its way.</t>
         </is>
       </c>
-      <c r="K12" s="11" t="inlineStr">
+      <c r="K12" s="13" t="inlineStr">
         <is>
           <t>Test Case 1.3 (Continued): Magic Link Authentication — Existing User
 Test Actions Performed:
@@ -981,7 +980,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Enter email and wrong code (e.g., "000000"), click "Sign in"</t>
+          <t>Enter email + wrong code (e.g., "000000"), click "Sign in"</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -990,10 +989,14 @@
         </is>
       </c>
       <c r="E13" s="4" t="n"/>
-      <c r="F13" s="16" t="n"/>
+      <c r="F13" s="20" t="n"/>
       <c r="G13" s="4" t="n"/>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="16" t="n"/>
+      <c r="H13" s="18" t="inlineStr">
+        <is>
+          <t>RETEST</t>
+        </is>
+      </c>
+      <c r="I13" s="20" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1008,7 +1011,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Click the user/auth button in the header, sign out</t>
+          <t>Click the user/auth button in header, sign out</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1035,28 +1038,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>User remains logged in (24hr session in localStorage)</t>
+          <t>User remains logged in (24hr session)</t>
         </is>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="F16" s="16" t="n"/>
-      <c r="I16" s="16" t="n"/>
+      <c r="F16" s="20" t="n"/>
+      <c r="I16" s="20" t="n"/>
     </row>
     <row r="17" ht="356" customHeight="1">
-      <c r="A17" s="23" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Section 2: Step 1 — Program Selection</t>
         </is>
       </c>
-      <c r="B17" s="22" t="n"/>
-      <c r="C17" s="22" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="22" t="n"/>
-      <c r="F17" s="22" t="n"/>
-      <c r="G17" s="22" t="n"/>
-      <c r="H17" s="22" t="n"/>
-      <c r="I17" s="24" t="n"/>
+      <c r="B17" s="15" t="n"/>
+      <c r="C17" s="15" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="16" t="n"/>
+      <c r="G17" s="16" t="n"/>
+      <c r="I17" s="20" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1084,26 +1086,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F18" s="20" t="n"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H18" s="13" t="inlineStr">
+      <c r="H18" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I18" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I18" s="20" t="n"/>
     </row>
     <row r="19" ht="75" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
@@ -1131,15 +1125,12 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F19" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F19" s="20" t="n"/>
       <c r="G19" s="4" t="inlineStr">
         <is>
           <t>UX Fixes — Providence Health Clinic Onboarding
 Remove "Providence" text from far left of header.
-Remove icon/placeholder from far left of header.                                                                           
-Remove The tag line under Providence Health Clinic Onboarding
+Remove icon/placeholder from far left of header.
 Update "Providence Health" text color — currently black on blue background, unreadable.
 Remove "Previous" button on first page — no previous page exists.
 Remove "Platform" from program selection list — used for platform-level changes only.
@@ -1147,14 +1138,8 @@
 Result: All programs appeared as expected. PASS.</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I19" s="20" t="n">
-        <v>46058</v>
-      </c>
+      <c r="H19" s="18" t="n"/>
+      <c r="I19" s="20" t="n"/>
     </row>
     <row r="20" ht="75" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
@@ -1182,12 +1167,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F20" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F20" s="20" t="n"/>
       <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="16" t="n"/>
+      <c r="H20" s="18" t="n"/>
+      <c r="I20" s="20" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1215,17 +1198,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F21" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F21" s="20" t="n"/>
       <c r="G21" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without selecting a program. Clicked "Next."
 Form blocked progression. Selection box highlighted in red. Error message displayed: "Select Program is required."</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="16" t="n"/>
+      <c r="H21" s="18" t="n"/>
+      <c r="I21" s="20" t="n"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
@@ -1253,36 +1234,33 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F22" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F22" s="20" t="n"/>
       <c r="G22" s="4" t="inlineStr">
         <is>
           <t>Selected Prevention4ME. Red highlight disappeared. Selection box returned to normal view with green outline. Clicked "Next."
 Successfully navigated to the next page.</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="18" t="n"/>
+      <c r="I22" s="20" t="n"/>
     </row>
     <row r="23" ht="17" customHeight="1">
-      <c r="F23" s="16" t="n"/>
-      <c r="I23" s="16" t="n"/>
+      <c r="F23" s="20" t="n"/>
+      <c r="I23" s="20" t="n"/>
     </row>
     <row r="24" ht="135" customHeight="1">
-      <c r="A24" s="23" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Section 3: Step 2 — Clinic Information</t>
         </is>
       </c>
-      <c r="B24" s="22" t="n"/>
-      <c r="C24" s="22" t="n"/>
-      <c r="D24" s="22" t="n"/>
-      <c r="E24" s="22" t="n"/>
-      <c r="F24" s="22" t="n"/>
-      <c r="G24" s="22" t="n"/>
-      <c r="H24" s="22" t="n"/>
-      <c r="I24" s="24" t="n"/>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="16" t="n"/>
+      <c r="G24" s="16" t="n"/>
+      <c r="I24" s="20" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -1310,26 +1288,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F25" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F25" s="20" t="n"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H25" s="13" t="inlineStr">
+      <c r="H25" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I25" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1357,19 +1327,17 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F26" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F26" s="20" t="n"/>
       <c r="G26" s="4" t="inlineStr">
         <is>
           <t>Attempted to proceed without completing any required fields. Clicked "Next."
 Form blocked progression. All required fields highlighted in red with corresponding error messages: "Clinic Name is required," "Clinic EPIC ID is required," "Please complete all required address fields," "Timezone is required," "Clinic Office Phone Number is required."</t>
         </is>
       </c>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="16" t="n"/>
-    </row>
-    <row r="27" ht="60" customHeight="1">
+      <c r="H26" s="18" t="n"/>
+      <c r="I26" s="20" t="n"/>
+    </row>
+    <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>3.2</t>
@@ -1395,12 +1363,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F27" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F27" s="20" t="n"/>
       <c r="G27" s="4" t="n"/>
-      <c r="H27" s="14" t="n"/>
-      <c r="I27" s="16" t="n"/>
+      <c r="H27" s="18" t="n"/>
+      <c r="I27" s="20" t="n"/>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
@@ -1424,10 +1390,10 @@
         </is>
       </c>
       <c r="E28" s="4" t="n"/>
-      <c r="F28" s="16" t="n"/>
+      <c r="F28" s="20" t="n"/>
       <c r="G28" s="4" t="n"/>
-      <c r="H28" s="14" t="n"/>
-      <c r="I28" s="16" t="n"/>
+      <c r="H28" s="18" t="n"/>
+      <c r="I28" s="20" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1455,16 +1421,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F29" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F29" s="20" t="n"/>
       <c r="G29" s="4" t="inlineStr">
         <is>
           <t>12345 (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="H29" s="14" t="n"/>
-      <c r="I29" s="16" t="n"/>
+      <c r="H29" s="18" t="n"/>
+      <c r="I29" s="20" t="n"/>
     </row>
     <row r="30" ht="64" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
@@ -1492,18 +1456,16 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F30" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F30" s="20" t="n"/>
       <c r="G30" s="4" t="inlineStr">
         <is>
           <t>123 Any Street, Auburn CA (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="H30" s="14" t="n"/>
-      <c r="I30" s="16" t="n"/>
-    </row>
-    <row r="31" ht="60" customHeight="1">
+      <c r="H30" s="18" t="n"/>
+      <c r="I30" s="20" t="n"/>
+    </row>
+    <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>3.6</t>
@@ -1529,12 +1491,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F31" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F31" s="20" t="n"/>
       <c r="G31" s="4" t="n"/>
-      <c r="H31" s="14" t="n"/>
-      <c r="I31" s="16" t="n"/>
+      <c r="H31" s="18" t="n"/>
+      <c r="I31" s="20" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
@@ -1562,16 +1522,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F32" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G32" s="11" t="inlineStr">
+      <c r="F32" s="20" t="n"/>
+      <c r="G32" s="13" t="inlineStr">
         <is>
           <t>Entered a 4-digit zip code. Zip code field remained red. Entire address box remained outlined in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="H32" s="14" t="n"/>
-      <c r="I32" s="16" t="n"/>
+      <c r="H32" s="18" t="n"/>
+      <c r="I32" s="20" t="n"/>
     </row>
     <row r="33" ht="45" customHeight="1">
       <c r="A33" s="4" t="inlineStr">
@@ -1599,18 +1557,16 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F33" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F33" s="20" t="n"/>
       <c r="G33" s="4" t="inlineStr">
         <is>
           <t>97201 (for DB reconsillation)</t>
         </is>
       </c>
-      <c r="H33" s="14" t="n"/>
-      <c r="I33" s="16" t="n"/>
-    </row>
-    <row r="34" ht="60" customHeight="1">
+      <c r="H33" s="18" t="n"/>
+      <c r="I33" s="20" t="n"/>
+    </row>
+    <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>3.9</t>
@@ -1636,16 +1592,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F34" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F34" s="20" t="n"/>
       <c r="G34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacific (for DB reconcillation) </t>
         </is>
       </c>
-      <c r="H34" s="14" t="n"/>
-      <c r="I34" s="16" t="n"/>
+      <c r="H34" s="18" t="n"/>
+      <c r="I34" s="20" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
@@ -1673,16 +1627,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F35" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F35" s="20" t="n"/>
       <c r="G35" s="4" t="inlineStr">
         <is>
           <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="H35" s="14" t="n"/>
-      <c r="I35" s="16" t="n"/>
+      <c r="H35" s="18" t="n"/>
+      <c r="I35" s="20" t="n"/>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="inlineStr">
@@ -1710,16 +1662,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F36" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F36" s="20" t="n"/>
       <c r="G36" s="4" t="inlineStr">
         <is>
           <t>555-123-4567 (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="H36" s="14" t="n"/>
-      <c r="I36" s="16" t="n"/>
+      <c r="H36" s="18" t="n"/>
+      <c r="I36" s="20" t="n"/>
     </row>
     <row r="37" ht="45" customHeight="1">
       <c r="A37" s="4" t="inlineStr">
@@ -1747,12 +1697,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F37" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F37" s="20" t="n"/>
       <c r="G37" s="4" t="n"/>
-      <c r="H37" s="14" t="n"/>
-      <c r="I37" s="16" t="n"/>
+      <c r="H37" s="18" t="n"/>
+      <c r="I37" s="20" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1780,12 +1728,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F38" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F38" s="20" t="n"/>
       <c r="G38" s="4" t="n"/>
-      <c r="H38" s="14" t="n"/>
-      <c r="I38" s="16" t="n"/>
+      <c r="H38" s="18" t="n"/>
+      <c r="I38" s="20" t="n"/>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="inlineStr">
@@ -1813,16 +1759,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F39" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F39" s="20" t="n"/>
       <c r="G39" s="4" t="inlineStr">
         <is>
           <t>Entered partial phone number (555-123). Phone number field remained highlighted in red. Could not proceed to next page.</t>
         </is>
       </c>
-      <c r="H39" s="14" t="n"/>
-      <c r="I39" s="16" t="n"/>
+      <c r="H39" s="18" t="n"/>
+      <c r="I39" s="20" t="n"/>
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="inlineStr">
@@ -1850,12 +1794,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F40" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F40" s="20" t="n"/>
       <c r="G40" s="4" t="n"/>
-      <c r="H40" s="14" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="18" t="n"/>
+      <c r="I40" s="20" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1883,12 +1825,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F41" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F41" s="20" t="n"/>
       <c r="G41" s="4" t="n"/>
-      <c r="H41" s="14" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="18" t="n"/>
+      <c r="I41" s="20" t="n"/>
     </row>
     <row r="42" ht="17" customHeight="1">
       <c r="A42" s="4" t="inlineStr">
@@ -1916,31 +1856,28 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F42" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F42" s="20" t="n"/>
       <c r="G42" s="4" t="n"/>
-      <c r="H42" s="14" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="18" t="n"/>
+      <c r="I42" s="20" t="n"/>
     </row>
     <row r="43" ht="17" customHeight="1">
-      <c r="F43" s="16" t="n"/>
-      <c r="I43" s="16" t="n"/>
+      <c r="F43" s="20" t="n"/>
+      <c r="I43" s="20" t="n"/>
     </row>
     <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="23" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Section 4: Step 3 — Contacts</t>
         </is>
       </c>
-      <c r="B44" s="22" t="n"/>
-      <c r="C44" s="22" t="n"/>
-      <c r="D44" s="22" t="n"/>
-      <c r="E44" s="22" t="n"/>
-      <c r="F44" s="22" t="n"/>
-      <c r="G44" s="22" t="n"/>
-      <c r="H44" s="22" t="n"/>
-      <c r="I44" s="24" t="n"/>
+      <c r="B44" s="15" t="n"/>
+      <c r="C44" s="15" t="n"/>
+      <c r="D44" s="15" t="n"/>
+      <c r="E44" s="15" t="n"/>
+      <c r="F44" s="16" t="n"/>
+      <c r="G44" s="16" t="n"/>
+      <c r="I44" s="20" t="n"/>
     </row>
     <row r="45" ht="80" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
@@ -1968,28 +1905,20 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F45" s="20" t="n"/>
       <c r="G45" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H45" s="13" t="inlineStr">
+      <c r="H45" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I45" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="60" customHeight="1">
+      <c r="I45" s="20" t="n"/>
+    </row>
+    <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
           <t>4.1</t>
@@ -2015,12 +1944,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F46" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F46" s="20" t="n"/>
       <c r="G46" s="4" t="n"/>
-      <c r="H46" s="14" t="n"/>
-      <c r="I46" s="16" t="n"/>
+      <c r="H46" s="18" t="n"/>
+      <c r="I46" s="20" t="n"/>
     </row>
     <row r="47" ht="64" customHeight="1">
       <c r="A47" s="4" t="inlineStr">
@@ -2048,16 +1975,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F47" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G47" s="11" t="inlineStr">
+      <c r="F47" s="20" t="n"/>
+      <c r="G47" s="13" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
         </is>
       </c>
-      <c r="H47" s="14" t="n"/>
-      <c r="I47" s="16" t="n"/>
+      <c r="H47" s="18" t="n"/>
+      <c r="I47" s="20" t="n"/>
     </row>
     <row r="48" ht="195" customHeight="1">
       <c r="A48" s="4" t="inlineStr">
@@ -2085,16 +2010,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F48" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F48" s="20" t="n"/>
       <c r="G48" s="4" t="inlineStr">
         <is>
           <t>Jane Smith (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="H48" s="14" t="n"/>
-      <c r="I48" s="16" t="n"/>
+      <c r="H48" s="18" t="n"/>
+      <c r="I48" s="20" t="n"/>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="inlineStr">
@@ -2122,16 +2045,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F49" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G49" s="11" t="inlineStr">
+      <c r="F49" s="20" t="n"/>
+      <c r="G49" s="13" t="inlineStr">
         <is>
           <t>Entered improperly formatted email. Form blocked navigation to next page until a properly formatted email was entered.</t>
         </is>
       </c>
-      <c r="H49" s="14" t="n"/>
-      <c r="I49" s="16" t="n"/>
+      <c r="H49" s="18" t="n"/>
+      <c r="I49" s="20" t="n"/>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="inlineStr">
@@ -2159,9 +2080,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F50" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F50" s="20" t="n"/>
       <c r="G50" s="4" t="inlineStr">
         <is>
           <t>Entered incomplete phone number. Form blocked navigation to next page.
@@ -2169,8 +2088,8 @@
 When an incomplete phone number is entered, the form correctly blocks navigation but does not highlight the phone number field as an error. While the field may not be required, if the format is invalid, there should be a visual indication that it needs correction. Currently the user has no feedback on what's blocking them.</t>
         </is>
       </c>
-      <c r="H50" s="14" t="n"/>
-      <c r="I50" s="16" t="n"/>
+      <c r="H50" s="18" t="n"/>
+      <c r="I50" s="20" t="n"/>
     </row>
     <row r="51" ht="80" customHeight="1">
       <c r="A51" s="4" t="inlineStr">
@@ -2198,12 +2117,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F51" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F51" s="20" t="n"/>
       <c r="G51" s="4" t="n"/>
-      <c r="H51" s="14" t="n"/>
-      <c r="I51" s="16" t="n"/>
+      <c r="H51" s="18" t="n"/>
+      <c r="I51" s="20" t="n"/>
     </row>
     <row r="52" ht="96" customHeight="1">
       <c r="A52" s="4" t="inlineStr">
@@ -2231,12 +2148,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F52" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F52" s="20" t="n"/>
       <c r="G52" s="4" t="n"/>
-      <c r="H52" s="14" t="n"/>
-      <c r="I52" s="16" t="n"/>
+      <c r="H52" s="18" t="n"/>
+      <c r="I52" s="20" t="n"/>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="inlineStr">
@@ -2264,16 +2179,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F53" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G53" s="12" t="inlineStr">
+      <c r="F53" s="20" t="n"/>
+      <c r="G53" s="14" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed.</t>
         </is>
       </c>
-      <c r="H53" s="14" t="n"/>
-      <c r="I53" s="16" t="n"/>
+      <c r="H53" s="18" t="n"/>
+      <c r="I53" s="20" t="n"/>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="inlineStr">
@@ -2301,16 +2214,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F54" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
+      <c r="F54" s="20" t="n"/>
+      <c r="G54" s="14" t="inlineStr">
         <is>
           <t>Left all contact fields blank (covers sub-tests 4.2, 4.8, 4.9). Attempted to navigate to next page. All fields highlighted in red as required. Could not proceed. Jon Doe (for DB reconcillation)</t>
         </is>
       </c>
-      <c r="H54" s="14" t="n"/>
-      <c r="I54" s="16" t="n"/>
+      <c r="H54" s="18" t="n"/>
+      <c r="I54" s="20" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -2338,16 +2249,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F55" s="20" t="n">
-        <v>46057</v>
-      </c>
-      <c r="G55" s="21" t="inlineStr">
-        <is>
-          <t>Lab Contact - update tag line: Lab Sale Represenative (if there is one)</t>
-        </is>
-      </c>
-      <c r="H55" s="14" t="n"/>
-      <c r="I55" s="16" t="n"/>
+      <c r="F55" s="20" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="18" t="n"/>
+      <c r="I55" s="20" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2375,12 +2280,10 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F56" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F56" s="20" t="n"/>
       <c r="G56" s="4" t="n"/>
-      <c r="H56" s="14" t="n"/>
-      <c r="I56" s="16" t="n"/>
+      <c r="H56" s="18" t="n"/>
+      <c r="I56" s="20" t="n"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" s="4" t="inlineStr">
@@ -2408,31 +2311,28 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F57" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F57" s="20" t="n"/>
       <c r="G57" s="4" t="n"/>
-      <c r="H57" s="14" t="n"/>
-      <c r="I57" s="16" t="n"/>
+      <c r="H57" s="18" t="n"/>
+      <c r="I57" s="20" t="n"/>
     </row>
     <row r="58" ht="17" customHeight="1">
-      <c r="F58" s="16" t="n"/>
-      <c r="I58" s="16" t="n"/>
+      <c r="F58" s="20" t="n"/>
+      <c r="I58" s="20" t="n"/>
     </row>
     <row r="59" ht="30" customHeight="1">
-      <c r="A59" s="23" t="inlineStr">
+      <c r="A59" s="11" t="inlineStr">
         <is>
           <t>Section 5: Step 4 — Key Stakeholders</t>
         </is>
       </c>
-      <c r="B59" s="22" t="n"/>
-      <c r="C59" s="22" t="n"/>
-      <c r="D59" s="22" t="n"/>
-      <c r="E59" s="22" t="n"/>
-      <c r="F59" s="22" t="n"/>
-      <c r="G59" s="22" t="n"/>
-      <c r="H59" s="22" t="n"/>
-      <c r="I59" s="24" t="n"/>
+      <c r="B59" s="15" t="n"/>
+      <c r="C59" s="15" t="n"/>
+      <c r="D59" s="15" t="n"/>
+      <c r="E59" s="15" t="n"/>
+      <c r="F59" s="16" t="n"/>
+      <c r="G59" s="16" t="n"/>
+      <c r="I59" s="20" t="n"/>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
@@ -2460,26 +2360,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F60" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F60" s="20" t="n"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H60" s="13" t="inlineStr">
+      <c r="H60" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I60" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I60" s="20" t="n"/>
     </row>
     <row r="61" ht="195" customHeight="1">
       <c r="A61" s="4" t="inlineStr">
@@ -2507,16 +2399,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F61" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F61" s="20" t="n"/>
       <c r="G61" s="4" t="inlineStr">
         <is>
           <t>All fields displayed properly. Able to navigate to next page.</t>
         </is>
       </c>
-      <c r="H61" s="14" t="n"/>
-      <c r="I61" s="16" t="n"/>
+      <c r="H61" s="18" t="n"/>
+      <c r="I61" s="20" t="n"/>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="inlineStr">
@@ -2544,16 +2434,14 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F62" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F62" s="20" t="n"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>All stakeholder groups rendered correctly.</t>
         </is>
       </c>
-      <c r="H62" s="14" t="n"/>
-      <c r="I62" s="16" t="n"/>
+      <c r="H62" s="18" t="n"/>
+      <c r="I62" s="20" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -2581,17 +2469,15 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="F63" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F63" s="20" t="n"/>
       <c r="G63" s="4" t="inlineStr">
         <is>
           <t>Email and phone number fields validated properly. Could not navigate to next page without properly formatted email or phone number.
 PASS — but with UX issue noted below.  Same behavior as previous contact section. When clicking "Next" with an improperly formatted email or phone number, the form blocks navigation but provides no visual indication of which field is causing the issue. No error highlighting, helper icon, or tooltip appears. User must scroll to top to manually identify the problem.</t>
         </is>
       </c>
-      <c r="H63" s="14" t="n"/>
-      <c r="I63" s="16" t="n"/>
+      <c r="H63" s="18" t="n"/>
+      <c r="I63" s="20" t="n"/>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" s="4" t="inlineStr">
@@ -2615,33 +2501,32 @@
         </is>
       </c>
       <c r="E64" s="4" t="n"/>
-      <c r="F64" s="16" t="n"/>
+      <c r="F64" s="20" t="n"/>
       <c r="G64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Mill (for db reconcillaiton) check as ordering provider. </t>
         </is>
       </c>
-      <c r="H64" s="14" t="n"/>
-      <c r="I64" s="16" t="n"/>
+      <c r="H64" s="18" t="n"/>
+      <c r="I64" s="20" t="n"/>
     </row>
     <row r="65" ht="17" customHeight="1">
-      <c r="F65" s="16" t="n"/>
-      <c r="I65" s="16" t="n"/>
+      <c r="F65" s="20" t="n"/>
+      <c r="I65" s="20" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="23" t="inlineStr">
+      <c r="A66" s="11" t="inlineStr">
         <is>
           <t>Section 6: Step 5 — Lab Configuration</t>
         </is>
       </c>
-      <c r="B66" s="22" t="n"/>
-      <c r="C66" s="22" t="n"/>
-      <c r="D66" s="22" t="n"/>
-      <c r="E66" s="22" t="n"/>
-      <c r="F66" s="22" t="n"/>
-      <c r="G66" s="22" t="n"/>
-      <c r="H66" s="22" t="n"/>
-      <c r="I66" s="24" t="n"/>
+      <c r="B66" s="15" t="n"/>
+      <c r="C66" s="15" t="n"/>
+      <c r="D66" s="15" t="n"/>
+      <c r="E66" s="15" t="n"/>
+      <c r="F66" s="16" t="n"/>
+      <c r="G66" s="16" t="n"/>
+      <c r="I66" s="20" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -2669,26 +2554,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F67" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F67" s="20" t="n"/>
       <c r="G67" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H67" s="13" t="inlineStr">
+      <c r="H67" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I67" s="20" t="n"/>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="inlineStr">
@@ -2712,10 +2589,10 @@
         </is>
       </c>
       <c r="E68" s="4" t="n"/>
-      <c r="F68" s="16" t="n"/>
+      <c r="F68" s="20" t="n"/>
       <c r="G68" s="4" t="n"/>
-      <c r="H68" s="14" t="n"/>
-      <c r="I68" s="16" t="n"/>
+      <c r="H68" s="18" t="n"/>
+      <c r="I68" s="20" t="n"/>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="inlineStr">
@@ -2739,10 +2616,10 @@
         </is>
       </c>
       <c r="E69" s="4" t="n"/>
-      <c r="F69" s="16" t="n"/>
+      <c r="F69" s="20" t="n"/>
       <c r="G69" s="4" t="n"/>
-      <c r="H69" s="14" t="n"/>
-      <c r="I69" s="16" t="n"/>
+      <c r="H69" s="18" t="n"/>
+      <c r="I69" s="20" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -2766,10 +2643,10 @@
         </is>
       </c>
       <c r="E70" s="4" t="n"/>
-      <c r="F70" s="16" t="n"/>
+      <c r="F70" s="20" t="n"/>
       <c r="G70" s="4" t="n"/>
-      <c r="H70" s="14" t="n"/>
-      <c r="I70" s="16" t="n"/>
+      <c r="H70" s="18" t="n"/>
+      <c r="I70" s="20" t="n"/>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="inlineStr">
@@ -2793,10 +2670,10 @@
         </is>
       </c>
       <c r="E71" s="4" t="n"/>
-      <c r="F71" s="16" t="n"/>
+      <c r="F71" s="20" t="n"/>
       <c r="G71" s="4" t="n"/>
-      <c r="H71" s="14" t="n"/>
-      <c r="I71" s="16" t="n"/>
+      <c r="H71" s="18" t="n"/>
+      <c r="I71" s="20" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -2820,10 +2697,10 @@
         </is>
       </c>
       <c r="E72" s="4" t="n"/>
-      <c r="F72" s="16" t="n"/>
+      <c r="F72" s="20" t="n"/>
       <c r="G72" s="4" t="n"/>
-      <c r="H72" s="14" t="n"/>
-      <c r="I72" s="16" t="n"/>
+      <c r="H72" s="18" t="n"/>
+      <c r="I72" s="20" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -2847,10 +2724,10 @@
         </is>
       </c>
       <c r="E73" s="4" t="n"/>
-      <c r="F73" s="16" t="n"/>
+      <c r="F73" s="20" t="n"/>
       <c r="G73" s="4" t="n"/>
-      <c r="H73" s="14" t="n"/>
-      <c r="I73" s="16" t="n"/>
+      <c r="H73" s="18" t="n"/>
+      <c r="I73" s="20" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -2874,10 +2751,10 @@
         </is>
       </c>
       <c r="E74" s="4" t="n"/>
-      <c r="F74" s="16" t="n"/>
+      <c r="F74" s="20" t="n"/>
       <c r="G74" s="4" t="n"/>
-      <c r="H74" s="14" t="n"/>
-      <c r="I74" s="16" t="n"/>
+      <c r="H74" s="18" t="n"/>
+      <c r="I74" s="20" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -2901,10 +2778,10 @@
         </is>
       </c>
       <c r="E75" s="4" t="n"/>
-      <c r="F75" s="16" t="n"/>
+      <c r="F75" s="20" t="n"/>
       <c r="G75" s="4" t="n"/>
-      <c r="H75" s="14" t="n"/>
-      <c r="I75" s="16" t="n"/>
+      <c r="H75" s="18" t="n"/>
+      <c r="I75" s="20" t="n"/>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="inlineStr">
@@ -2928,10 +2805,10 @@
         </is>
       </c>
       <c r="E76" s="4" t="n"/>
-      <c r="F76" s="16" t="n"/>
+      <c r="F76" s="20" t="n"/>
       <c r="G76" s="4" t="n"/>
-      <c r="H76" s="14" t="n"/>
-      <c r="I76" s="16" t="n"/>
+      <c r="H76" s="18" t="n"/>
+      <c r="I76" s="20" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -2955,10 +2832,10 @@
         </is>
       </c>
       <c r="E77" s="4" t="n"/>
-      <c r="F77" s="16" t="n"/>
+      <c r="F77" s="20" t="n"/>
       <c r="G77" s="4" t="n"/>
-      <c r="H77" s="14" t="n"/>
-      <c r="I77" s="16" t="n"/>
+      <c r="H77" s="18" t="n"/>
+      <c r="I77" s="20" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -2982,10 +2859,10 @@
         </is>
       </c>
       <c r="E78" s="4" t="n"/>
-      <c r="F78" s="16" t="n"/>
+      <c r="F78" s="20" t="n"/>
       <c r="G78" s="4" t="n"/>
-      <c r="H78" s="14" t="n"/>
-      <c r="I78" s="16" t="n"/>
+      <c r="H78" s="18" t="n"/>
+      <c r="I78" s="20" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -3009,10 +2886,10 @@
         </is>
       </c>
       <c r="E79" s="4" t="n"/>
-      <c r="F79" s="16" t="n"/>
+      <c r="F79" s="20" t="n"/>
       <c r="G79" s="4" t="n"/>
-      <c r="H79" s="14" t="n"/>
-      <c r="I79" s="16" t="n"/>
+      <c r="H79" s="18" t="n"/>
+      <c r="I79" s="20" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -3036,10 +2913,10 @@
         </is>
       </c>
       <c r="E80" s="4" t="n"/>
-      <c r="F80" s="16" t="n"/>
+      <c r="F80" s="20" t="n"/>
       <c r="G80" s="4" t="n"/>
-      <c r="H80" s="14" t="n"/>
-      <c r="I80" s="16" t="n"/>
+      <c r="H80" s="18" t="n"/>
+      <c r="I80" s="20" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -3063,10 +2940,10 @@
         </is>
       </c>
       <c r="E81" s="4" t="n"/>
-      <c r="F81" s="16" t="n"/>
+      <c r="F81" s="20" t="n"/>
       <c r="G81" s="4" t="n"/>
-      <c r="H81" s="14" t="n"/>
-      <c r="I81" s="16" t="n"/>
+      <c r="H81" s="18" t="n"/>
+      <c r="I81" s="20" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -3090,10 +2967,10 @@
         </is>
       </c>
       <c r="E82" s="4" t="n"/>
-      <c r="F82" s="16" t="n"/>
+      <c r="F82" s="20" t="n"/>
       <c r="G82" s="4" t="n"/>
-      <c r="H82" s="14" t="n"/>
-      <c r="I82" s="16" t="n"/>
+      <c r="H82" s="18" t="n"/>
+      <c r="I82" s="20" t="n"/>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="inlineStr">
@@ -3117,10 +2994,10 @@
         </is>
       </c>
       <c r="E83" s="4" t="n"/>
-      <c r="F83" s="16" t="n"/>
+      <c r="F83" s="20" t="n"/>
       <c r="G83" s="4" t="n"/>
-      <c r="H83" s="14" t="n"/>
-      <c r="I83" s="16" t="n"/>
+      <c r="H83" s="18" t="n"/>
+      <c r="I83" s="20" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -3144,10 +3021,10 @@
         </is>
       </c>
       <c r="E84" s="4" t="n"/>
-      <c r="F84" s="16" t="n"/>
+      <c r="F84" s="20" t="n"/>
       <c r="G84" s="4" t="n"/>
-      <c r="H84" s="14" t="n"/>
-      <c r="I84" s="16" t="n"/>
+      <c r="H84" s="18" t="n"/>
+      <c r="I84" s="20" t="n"/>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" s="4" t="inlineStr">
@@ -3171,29 +3048,28 @@
         </is>
       </c>
       <c r="E85" s="4" t="n"/>
-      <c r="F85" s="16" t="n"/>
+      <c r="F85" s="20" t="n"/>
       <c r="G85" s="4" t="n"/>
-      <c r="H85" s="14" t="n"/>
-      <c r="I85" s="16" t="n"/>
+      <c r="H85" s="18" t="n"/>
+      <c r="I85" s="20" t="n"/>
     </row>
     <row r="86" ht="17" customHeight="1">
-      <c r="F86" s="16" t="n"/>
-      <c r="I86" s="16" t="n"/>
+      <c r="F86" s="20" t="n"/>
+      <c r="I86" s="20" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="23" t="inlineStr">
+      <c r="A87" s="11" t="inlineStr">
         <is>
           <t>Section 7: Step 6 — Additional Test Panels (Repeatable)</t>
         </is>
       </c>
-      <c r="B87" s="22" t="n"/>
-      <c r="C87" s="22" t="n"/>
-      <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
-      <c r="F87" s="22" t="n"/>
-      <c r="G87" s="22" t="n"/>
-      <c r="H87" s="22" t="n"/>
-      <c r="I87" s="24" t="n"/>
+      <c r="B87" s="15" t="n"/>
+      <c r="C87" s="15" t="n"/>
+      <c r="D87" s="15" t="n"/>
+      <c r="E87" s="15" t="n"/>
+      <c r="F87" s="16" t="n"/>
+      <c r="G87" s="16" t="n"/>
+      <c r="I87" s="20" t="n"/>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
@@ -3221,26 +3097,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F88" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F88" s="20" t="n"/>
       <c r="G88" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H88" s="13" t="inlineStr">
+      <c r="H88" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I88" s="20" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -3264,10 +3132,10 @@
         </is>
       </c>
       <c r="E89" s="4" t="n"/>
-      <c r="F89" s="16" t="n"/>
+      <c r="F89" s="20" t="n"/>
       <c r="G89" s="4" t="n"/>
-      <c r="H89" s="14" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="18" t="n"/>
+      <c r="I89" s="20" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -3291,10 +3159,10 @@
         </is>
       </c>
       <c r="E90" s="4" t="n"/>
-      <c r="F90" s="16" t="n"/>
+      <c r="F90" s="20" t="n"/>
       <c r="G90" s="4" t="n"/>
-      <c r="H90" s="14" t="n"/>
-      <c r="I90" s="16" t="n"/>
+      <c r="H90" s="18" t="n"/>
+      <c r="I90" s="20" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -3318,10 +3186,10 @@
         </is>
       </c>
       <c r="E91" s="4" t="n"/>
-      <c r="F91" s="16" t="n"/>
+      <c r="F91" s="20" t="n"/>
       <c r="G91" s="4" t="n"/>
-      <c r="H91" s="14" t="n"/>
-      <c r="I91" s="16" t="n"/>
+      <c r="H91" s="18" t="n"/>
+      <c r="I91" s="20" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -3345,10 +3213,10 @@
         </is>
       </c>
       <c r="E92" s="4" t="n"/>
-      <c r="F92" s="16" t="n"/>
+      <c r="F92" s="20" t="n"/>
       <c r="G92" s="4" t="n"/>
-      <c r="H92" s="14" t="n"/>
-      <c r="I92" s="16" t="n"/>
+      <c r="H92" s="18" t="n"/>
+      <c r="I92" s="20" t="n"/>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="inlineStr">
@@ -3372,10 +3240,10 @@
         </is>
       </c>
       <c r="E93" s="4" t="n"/>
-      <c r="F93" s="16" t="n"/>
+      <c r="F93" s="20" t="n"/>
       <c r="G93" s="4" t="n"/>
-      <c r="H93" s="14" t="n"/>
-      <c r="I93" s="16" t="n"/>
+      <c r="H93" s="18" t="n"/>
+      <c r="I93" s="20" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -3399,10 +3267,10 @@
         </is>
       </c>
       <c r="E94" s="4" t="n"/>
-      <c r="F94" s="16" t="n"/>
+      <c r="F94" s="20" t="n"/>
       <c r="G94" s="4" t="n"/>
-      <c r="H94" s="14" t="n"/>
-      <c r="I94" s="16" t="n"/>
+      <c r="H94" s="18" t="n"/>
+      <c r="I94" s="20" t="n"/>
     </row>
     <row r="95" ht="17" customHeight="1">
       <c r="A95" s="4" t="inlineStr">
@@ -3426,29 +3294,28 @@
         </is>
       </c>
       <c r="E95" s="4" t="n"/>
-      <c r="F95" s="16" t="n"/>
+      <c r="F95" s="20" t="n"/>
       <c r="G95" s="4" t="n"/>
-      <c r="H95" s="14" t="n"/>
-      <c r="I95" s="16" t="n"/>
+      <c r="H95" s="18" t="n"/>
+      <c r="I95" s="20" t="n"/>
     </row>
     <row r="96" ht="17" customHeight="1">
-      <c r="F96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
+      <c r="F96" s="20" t="n"/>
+      <c r="I96" s="20" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="23" t="inlineStr">
+      <c r="A97" s="11" t="inlineStr">
         <is>
           <t>Section 8: Step 7 — Ordering Providers (Repeatable)</t>
         </is>
       </c>
-      <c r="B97" s="22" t="n"/>
-      <c r="C97" s="22" t="n"/>
-      <c r="D97" s="22" t="n"/>
-      <c r="E97" s="22" t="n"/>
-      <c r="F97" s="22" t="n"/>
-      <c r="G97" s="22" t="n"/>
-      <c r="H97" s="22" t="n"/>
-      <c r="I97" s="24" t="n"/>
+      <c r="B97" s="15" t="n"/>
+      <c r="C97" s="15" t="n"/>
+      <c r="D97" s="15" t="n"/>
+      <c r="E97" s="15" t="n"/>
+      <c r="F97" s="16" t="n"/>
+      <c r="G97" s="16" t="n"/>
+      <c r="I97" s="20" t="n"/>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
@@ -3476,26 +3343,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F98" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F98" s="20" t="n"/>
       <c r="G98" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H98" s="13" t="inlineStr">
+      <c r="H98" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I98" s="20" t="n"/>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="inlineStr">
@@ -3519,10 +3378,10 @@
         </is>
       </c>
       <c r="E99" s="4" t="n"/>
-      <c r="F99" s="16" t="n"/>
+      <c r="F99" s="20" t="n"/>
       <c r="G99" s="4" t="n"/>
-      <c r="H99" s="14" t="n"/>
-      <c r="I99" s="16" t="n"/>
+      <c r="H99" s="18" t="n"/>
+      <c r="I99" s="20" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -3546,10 +3405,10 @@
         </is>
       </c>
       <c r="E100" s="4" t="n"/>
-      <c r="F100" s="16" t="n"/>
+      <c r="F100" s="20" t="n"/>
       <c r="G100" s="4" t="n"/>
-      <c r="H100" s="14" t="n"/>
-      <c r="I100" s="16" t="n"/>
+      <c r="H100" s="18" t="n"/>
+      <c r="I100" s="20" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -3573,10 +3432,10 @@
         </is>
       </c>
       <c r="E101" s="4" t="n"/>
-      <c r="F101" s="16" t="n"/>
+      <c r="F101" s="20" t="n"/>
       <c r="G101" s="4" t="n"/>
-      <c r="H101" s="14" t="n"/>
-      <c r="I101" s="16" t="n"/>
+      <c r="H101" s="18" t="n"/>
+      <c r="I101" s="20" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -3600,10 +3459,10 @@
         </is>
       </c>
       <c r="E102" s="4" t="n"/>
-      <c r="F102" s="16" t="n"/>
+      <c r="F102" s="20" t="n"/>
       <c r="G102" s="4" t="n"/>
-      <c r="H102" s="14" t="n"/>
-      <c r="I102" s="16" t="n"/>
+      <c r="H102" s="18" t="n"/>
+      <c r="I102" s="20" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -3627,10 +3486,10 @@
         </is>
       </c>
       <c r="E103" s="4" t="n"/>
-      <c r="F103" s="16" t="n"/>
+      <c r="F103" s="20" t="n"/>
       <c r="G103" s="4" t="n"/>
-      <c r="H103" s="14" t="n"/>
-      <c r="I103" s="16" t="n"/>
+      <c r="H103" s="18" t="n"/>
+      <c r="I103" s="20" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -3654,10 +3513,10 @@
         </is>
       </c>
       <c r="E104" s="4" t="n"/>
-      <c r="F104" s="16" t="n"/>
+      <c r="F104" s="20" t="n"/>
       <c r="G104" s="4" t="n"/>
-      <c r="H104" s="14" t="n"/>
-      <c r="I104" s="16" t="n"/>
+      <c r="H104" s="18" t="n"/>
+      <c r="I104" s="20" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -3681,10 +3540,10 @@
         </is>
       </c>
       <c r="E105" s="4" t="n"/>
-      <c r="F105" s="16" t="n"/>
+      <c r="F105" s="20" t="n"/>
       <c r="G105" s="4" t="n"/>
-      <c r="H105" s="14" t="n"/>
-      <c r="I105" s="16" t="n"/>
+      <c r="H105" s="18" t="n"/>
+      <c r="I105" s="20" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
@@ -3708,10 +3567,10 @@
         </is>
       </c>
       <c r="E106" s="4" t="n"/>
-      <c r="F106" s="16" t="n"/>
+      <c r="F106" s="20" t="n"/>
       <c r="G106" s="4" t="n"/>
-      <c r="H106" s="14" t="n"/>
-      <c r="I106" s="16" t="n"/>
+      <c r="H106" s="18" t="n"/>
+      <c r="I106" s="20" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
@@ -3735,10 +3594,10 @@
         </is>
       </c>
       <c r="E107" s="4" t="n"/>
-      <c r="F107" s="16" t="n"/>
+      <c r="F107" s="20" t="n"/>
       <c r="G107" s="4" t="n"/>
-      <c r="H107" s="14" t="n"/>
-      <c r="I107" s="16" t="n"/>
+      <c r="H107" s="18" t="n"/>
+      <c r="I107" s="20" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
@@ -3762,10 +3621,10 @@
         </is>
       </c>
       <c r="E108" s="4" t="n"/>
-      <c r="F108" s="16" t="n"/>
+      <c r="F108" s="20" t="n"/>
       <c r="G108" s="4" t="n"/>
-      <c r="H108" s="14" t="n"/>
-      <c r="I108" s="16" t="n"/>
+      <c r="H108" s="18" t="n"/>
+      <c r="I108" s="20" t="n"/>
     </row>
     <row r="109" ht="17" customHeight="1">
       <c r="A109" s="4" t="inlineStr">
@@ -3789,29 +3648,28 @@
         </is>
       </c>
       <c r="E109" s="4" t="n"/>
-      <c r="F109" s="16" t="n"/>
+      <c r="F109" s="20" t="n"/>
       <c r="G109" s="4" t="n"/>
-      <c r="H109" s="14" t="n"/>
-      <c r="I109" s="16" t="n"/>
+      <c r="H109" s="18" t="n"/>
+      <c r="I109" s="20" t="n"/>
     </row>
     <row r="110" ht="17" customHeight="1">
-      <c r="F110" s="16" t="n"/>
-      <c r="I110" s="16" t="n"/>
+      <c r="F110" s="20" t="n"/>
+      <c r="I110" s="20" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="23" t="inlineStr">
+      <c r="A111" s="11" t="inlineStr">
         <is>
           <t>Section 9: Step 8 — Extract Filtering</t>
         </is>
       </c>
-      <c r="B111" s="22" t="n"/>
-      <c r="C111" s="22" t="n"/>
-      <c r="D111" s="22" t="n"/>
-      <c r="E111" s="22" t="n"/>
-      <c r="F111" s="22" t="n"/>
-      <c r="G111" s="22" t="n"/>
-      <c r="H111" s="22" t="n"/>
-      <c r="I111" s="24" t="n"/>
+      <c r="B111" s="15" t="n"/>
+      <c r="C111" s="15" t="n"/>
+      <c r="D111" s="15" t="n"/>
+      <c r="E111" s="15" t="n"/>
+      <c r="F111" s="16" t="n"/>
+      <c r="G111" s="16" t="n"/>
+      <c r="I111" s="20" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
@@ -3839,26 +3697,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F112" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F112" s="20" t="n"/>
       <c r="G112" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H112" s="13" t="inlineStr">
+      <c r="H112" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I112" s="20" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
@@ -3882,10 +3732,10 @@
         </is>
       </c>
       <c r="E113" s="4" t="n"/>
-      <c r="F113" s="16" t="n"/>
+      <c r="F113" s="20" t="n"/>
       <c r="G113" s="4" t="n"/>
-      <c r="H113" s="14" t="n"/>
-      <c r="I113" s="16" t="n"/>
+      <c r="H113" s="18" t="n"/>
+      <c r="I113" s="20" t="n"/>
     </row>
     <row r="114" ht="30" customHeight="1">
       <c r="A114" s="4" t="inlineStr">
@@ -3909,10 +3759,10 @@
         </is>
       </c>
       <c r="E114" s="4" t="n"/>
-      <c r="F114" s="16" t="n"/>
+      <c r="F114" s="20" t="n"/>
       <c r="G114" s="4" t="n"/>
-      <c r="H114" s="14" t="n"/>
-      <c r="I114" s="16" t="n"/>
+      <c r="H114" s="18" t="n"/>
+      <c r="I114" s="20" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -3936,10 +3786,10 @@
         </is>
       </c>
       <c r="E115" s="4" t="n"/>
-      <c r="F115" s="16" t="n"/>
+      <c r="F115" s="20" t="n"/>
       <c r="G115" s="4" t="n"/>
-      <c r="H115" s="14" t="n"/>
-      <c r="I115" s="16" t="n"/>
+      <c r="H115" s="18" t="n"/>
+      <c r="I115" s="20" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
@@ -3963,10 +3813,10 @@
         </is>
       </c>
       <c r="E116" s="4" t="n"/>
-      <c r="F116" s="16" t="n"/>
+      <c r="F116" s="20" t="n"/>
       <c r="G116" s="4" t="n"/>
-      <c r="H116" s="14" t="n"/>
-      <c r="I116" s="16" t="n"/>
+      <c r="H116" s="18" t="n"/>
+      <c r="I116" s="20" t="n"/>
     </row>
     <row r="117" ht="30" customHeight="1">
       <c r="A117" s="4" t="inlineStr">
@@ -3990,10 +3840,10 @@
         </is>
       </c>
       <c r="E117" s="4" t="n"/>
-      <c r="F117" s="16" t="n"/>
+      <c r="F117" s="20" t="n"/>
       <c r="G117" s="4" t="n"/>
-      <c r="H117" s="14" t="n"/>
-      <c r="I117" s="16" t="n"/>
+      <c r="H117" s="18" t="n"/>
+      <c r="I117" s="20" t="n"/>
     </row>
     <row r="118" ht="30" customHeight="1">
       <c r="A118" s="4" t="inlineStr">
@@ -4017,10 +3867,10 @@
         </is>
       </c>
       <c r="E118" s="4" t="n"/>
-      <c r="F118" s="16" t="n"/>
+      <c r="F118" s="20" t="n"/>
       <c r="G118" s="4" t="n"/>
-      <c r="H118" s="14" t="n"/>
-      <c r="I118" s="16" t="n"/>
+      <c r="H118" s="18" t="n"/>
+      <c r="I118" s="20" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
@@ -4044,10 +3894,10 @@
         </is>
       </c>
       <c r="E119" s="4" t="n"/>
-      <c r="F119" s="16" t="n"/>
+      <c r="F119" s="20" t="n"/>
       <c r="G119" s="4" t="n"/>
-      <c r="H119" s="14" t="n"/>
-      <c r="I119" s="16" t="n"/>
+      <c r="H119" s="18" t="n"/>
+      <c r="I119" s="20" t="n"/>
     </row>
     <row r="120" ht="17" customHeight="1">
       <c r="A120" s="4" t="inlineStr">
@@ -4071,29 +3921,28 @@
         </is>
       </c>
       <c r="E120" s="4" t="n"/>
-      <c r="F120" s="16" t="n"/>
+      <c r="F120" s="20" t="n"/>
       <c r="G120" s="4" t="n"/>
-      <c r="H120" s="14" t="n"/>
-      <c r="I120" s="16" t="n"/>
+      <c r="H120" s="18" t="n"/>
+      <c r="I120" s="20" t="n"/>
     </row>
     <row r="121" ht="17" customHeight="1">
-      <c r="F121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="F121" s="20" t="n"/>
+      <c r="I121" s="20" t="n"/>
     </row>
     <row r="122" ht="30" customHeight="1">
-      <c r="A122" s="23" t="inlineStr">
+      <c r="A122" s="11" t="inlineStr">
         <is>
           <t>Section 10: Step 9 — Review &amp; Download</t>
         </is>
       </c>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
-      <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
-      <c r="F122" s="22" t="n"/>
-      <c r="G122" s="22" t="n"/>
-      <c r="H122" s="22" t="n"/>
-      <c r="I122" s="24" t="n"/>
+      <c r="B122" s="15" t="n"/>
+      <c r="C122" s="15" t="n"/>
+      <c r="D122" s="15" t="n"/>
+      <c r="E122" s="15" t="n"/>
+      <c r="F122" s="16" t="n"/>
+      <c r="G122" s="16" t="n"/>
+      <c r="I122" s="20" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
@@ -4121,26 +3970,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F123" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F123" s="20" t="n"/>
       <c r="G123" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H123" s="13" t="inlineStr">
+      <c r="H123" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I123" s="20" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -4164,10 +4005,10 @@
         </is>
       </c>
       <c r="E124" s="4" t="n"/>
-      <c r="F124" s="16" t="n"/>
+      <c r="F124" s="20" t="n"/>
       <c r="G124" s="4" t="n"/>
-      <c r="H124" s="14" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="18" t="n"/>
+      <c r="I124" s="20" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
@@ -4191,10 +4032,10 @@
         </is>
       </c>
       <c r="E125" s="4" t="n"/>
-      <c r="F125" s="16" t="n"/>
+      <c r="F125" s="20" t="n"/>
       <c r="G125" s="4" t="n"/>
-      <c r="H125" s="14" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="18" t="n"/>
+      <c r="I125" s="20" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
@@ -4218,10 +4059,10 @@
         </is>
       </c>
       <c r="E126" s="4" t="n"/>
-      <c r="F126" s="16" t="n"/>
+      <c r="F126" s="20" t="n"/>
       <c r="G126" s="4" t="n"/>
-      <c r="H126" s="14" t="n"/>
-      <c r="I126" s="16" t="n"/>
+      <c r="H126" s="18" t="n"/>
+      <c r="I126" s="20" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
@@ -4245,10 +4086,10 @@
         </is>
       </c>
       <c r="E127" s="4" t="n"/>
-      <c r="F127" s="16" t="n"/>
+      <c r="F127" s="20" t="n"/>
       <c r="G127" s="4" t="n"/>
-      <c r="H127" s="14" t="n"/>
-      <c r="I127" s="16" t="n"/>
+      <c r="H127" s="18" t="n"/>
+      <c r="I127" s="20" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
@@ -4272,10 +4113,10 @@
         </is>
       </c>
       <c r="E128" s="4" t="n"/>
-      <c r="F128" s="16" t="n"/>
+      <c r="F128" s="20" t="n"/>
       <c r="G128" s="4" t="n"/>
-      <c r="H128" s="14" t="n"/>
-      <c r="I128" s="16" t="n"/>
+      <c r="H128" s="18" t="n"/>
+      <c r="I128" s="20" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
@@ -4299,10 +4140,10 @@
         </is>
       </c>
       <c r="E129" s="4" t="n"/>
-      <c r="F129" s="16" t="n"/>
+      <c r="F129" s="20" t="n"/>
       <c r="G129" s="4" t="n"/>
-      <c r="H129" s="14" t="n"/>
-      <c r="I129" s="16" t="n"/>
+      <c r="H129" s="18" t="n"/>
+      <c r="I129" s="20" t="n"/>
     </row>
     <row r="130" ht="30" customHeight="1">
       <c r="A130" s="4" t="inlineStr">
@@ -4326,10 +4167,10 @@
         </is>
       </c>
       <c r="E130" s="4" t="n"/>
-      <c r="F130" s="16" t="n"/>
+      <c r="F130" s="20" t="n"/>
       <c r="G130" s="4" t="n"/>
-      <c r="H130" s="14" t="n"/>
-      <c r="I130" s="16" t="n"/>
+      <c r="H130" s="18" t="n"/>
+      <c r="I130" s="20" t="n"/>
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="A131" s="4" t="inlineStr">
@@ -4353,10 +4194,10 @@
         </is>
       </c>
       <c r="E131" s="4" t="n"/>
-      <c r="F131" s="16" t="n"/>
+      <c r="F131" s="20" t="n"/>
       <c r="G131" s="4" t="n"/>
-      <c r="H131" s="14" t="n"/>
-      <c r="I131" s="16" t="n"/>
+      <c r="H131" s="18" t="n"/>
+      <c r="I131" s="20" t="n"/>
     </row>
     <row r="132" ht="30" customHeight="1">
       <c r="A132" s="4" t="inlineStr">
@@ -4380,10 +4221,10 @@
         </is>
       </c>
       <c r="E132" s="4" t="n"/>
-      <c r="F132" s="16" t="n"/>
+      <c r="F132" s="20" t="n"/>
       <c r="G132" s="4" t="n"/>
-      <c r="H132" s="14" t="n"/>
-      <c r="I132" s="16" t="n"/>
+      <c r="H132" s="18" t="n"/>
+      <c r="I132" s="20" t="n"/>
     </row>
     <row r="133" ht="30" customHeight="1">
       <c r="A133" s="4" t="inlineStr">
@@ -4407,10 +4248,10 @@
         </is>
       </c>
       <c r="E133" s="4" t="n"/>
-      <c r="F133" s="16" t="n"/>
+      <c r="F133" s="20" t="n"/>
       <c r="G133" s="4" t="n"/>
-      <c r="H133" s="14" t="n"/>
-      <c r="I133" s="16" t="n"/>
+      <c r="H133" s="18" t="n"/>
+      <c r="I133" s="20" t="n"/>
     </row>
     <row r="134" ht="30" customHeight="1">
       <c r="A134" s="4" t="inlineStr">
@@ -4434,10 +4275,10 @@
         </is>
       </c>
       <c r="E134" s="4" t="n"/>
-      <c r="F134" s="16" t="n"/>
+      <c r="F134" s="20" t="n"/>
       <c r="G134" s="4" t="n"/>
-      <c r="H134" s="14" t="n"/>
-      <c r="I134" s="16" t="n"/>
+      <c r="H134" s="18" t="n"/>
+      <c r="I134" s="20" t="n"/>
     </row>
     <row r="135" ht="45" customHeight="1">
       <c r="A135" s="4" t="inlineStr">
@@ -4461,10 +4302,10 @@
         </is>
       </c>
       <c r="E135" s="4" t="n"/>
-      <c r="F135" s="16" t="n"/>
+      <c r="F135" s="20" t="n"/>
       <c r="G135" s="4" t="n"/>
-      <c r="H135" s="14" t="n"/>
-      <c r="I135" s="16" t="n"/>
+      <c r="H135" s="18" t="n"/>
+      <c r="I135" s="20" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
@@ -4488,10 +4329,10 @@
         </is>
       </c>
       <c r="E136" s="4" t="n"/>
-      <c r="F136" s="16" t="n"/>
+      <c r="F136" s="20" t="n"/>
       <c r="G136" s="4" t="n"/>
-      <c r="H136" s="14" t="n"/>
-      <c r="I136" s="16" t="n"/>
+      <c r="H136" s="18" t="n"/>
+      <c r="I136" s="20" t="n"/>
     </row>
     <row r="137" ht="17" customHeight="1">
       <c r="A137" s="4" t="inlineStr">
@@ -4515,29 +4356,28 @@
         </is>
       </c>
       <c r="E137" s="4" t="n"/>
-      <c r="F137" s="16" t="n"/>
+      <c r="F137" s="20" t="n"/>
       <c r="G137" s="4" t="n"/>
-      <c r="H137" s="14" t="n"/>
-      <c r="I137" s="16" t="n"/>
+      <c r="H137" s="18" t="n"/>
+      <c r="I137" s="20" t="n"/>
     </row>
     <row r="138" ht="17" customHeight="1">
-      <c r="F138" s="16" t="n"/>
-      <c r="I138" s="16" t="n"/>
+      <c r="F138" s="20" t="n"/>
+      <c r="I138" s="20" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="23" t="inlineStr">
+      <c r="A139" s="11" t="inlineStr">
         <is>
           <t>Section 11: Navigation &amp; Progress</t>
         </is>
       </c>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
-      <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
-      <c r="F139" s="22" t="n"/>
-      <c r="G139" s="22" t="n"/>
-      <c r="H139" s="22" t="n"/>
-      <c r="I139" s="24" t="n"/>
+      <c r="B139" s="15" t="n"/>
+      <c r="C139" s="15" t="n"/>
+      <c r="D139" s="15" t="n"/>
+      <c r="E139" s="15" t="n"/>
+      <c r="F139" s="16" t="n"/>
+      <c r="G139" s="16" t="n"/>
+      <c r="I139" s="20" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
@@ -4565,26 +4405,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F140" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F140" s="20" t="n"/>
       <c r="G140" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H140" s="13" t="inlineStr">
+      <c r="H140" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I140" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I140" s="20" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
@@ -4608,10 +4440,10 @@
         </is>
       </c>
       <c r="E141" s="4" t="n"/>
-      <c r="F141" s="16" t="n"/>
+      <c r="F141" s="20" t="n"/>
       <c r="G141" s="4" t="n"/>
-      <c r="H141" s="14" t="n"/>
-      <c r="I141" s="16" t="n"/>
+      <c r="H141" s="18" t="n"/>
+      <c r="I141" s="20" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
@@ -4635,10 +4467,10 @@
         </is>
       </c>
       <c r="E142" s="4" t="n"/>
-      <c r="F142" s="16" t="n"/>
+      <c r="F142" s="20" t="n"/>
       <c r="G142" s="4" t="n"/>
-      <c r="H142" s="14" t="n"/>
-      <c r="I142" s="16" t="n"/>
+      <c r="H142" s="18" t="n"/>
+      <c r="I142" s="20" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
@@ -4662,10 +4494,10 @@
         </is>
       </c>
       <c r="E143" s="4" t="n"/>
-      <c r="F143" s="16" t="n"/>
+      <c r="F143" s="20" t="n"/>
       <c r="G143" s="4" t="n"/>
-      <c r="H143" s="14" t="n"/>
-      <c r="I143" s="16" t="n"/>
+      <c r="H143" s="18" t="n"/>
+      <c r="I143" s="20" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
@@ -4689,10 +4521,10 @@
         </is>
       </c>
       <c r="E144" s="4" t="n"/>
-      <c r="F144" s="16" t="n"/>
+      <c r="F144" s="20" t="n"/>
       <c r="G144" s="4" t="n"/>
-      <c r="H144" s="14" t="n"/>
-      <c r="I144" s="16" t="n"/>
+      <c r="H144" s="18" t="n"/>
+      <c r="I144" s="20" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
@@ -4716,10 +4548,10 @@
         </is>
       </c>
       <c r="E145" s="4" t="n"/>
-      <c r="F145" s="16" t="n"/>
+      <c r="F145" s="20" t="n"/>
       <c r="G145" s="4" t="n"/>
-      <c r="H145" s="14" t="n"/>
-      <c r="I145" s="16" t="n"/>
+      <c r="H145" s="18" t="n"/>
+      <c r="I145" s="20" t="n"/>
     </row>
     <row r="146" ht="17" customHeight="1">
       <c r="A146" s="4" t="inlineStr">
@@ -4743,29 +4575,28 @@
         </is>
       </c>
       <c r="E146" s="4" t="n"/>
-      <c r="F146" s="16" t="n"/>
+      <c r="F146" s="20" t="n"/>
       <c r="G146" s="4" t="n"/>
-      <c r="H146" s="14" t="n"/>
-      <c r="I146" s="16" t="n"/>
+      <c r="H146" s="18" t="n"/>
+      <c r="I146" s="20" t="n"/>
     </row>
     <row r="147" ht="17" customHeight="1">
-      <c r="F147" s="16" t="n"/>
-      <c r="I147" s="16" t="n"/>
-    </row>
-    <row r="148" ht="409.5" customHeight="1">
-      <c r="A148" s="23" t="inlineStr">
+      <c r="F147" s="20" t="n"/>
+      <c r="I147" s="20" t="n"/>
+    </row>
+    <row r="148" ht="409.6" customHeight="1">
+      <c r="A148" s="11" t="inlineStr">
         <is>
           <t>Section 12: Auto-Save &amp; Resume</t>
         </is>
       </c>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
-      <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
-      <c r="F148" s="22" t="n"/>
-      <c r="G148" s="22" t="n"/>
-      <c r="H148" s="22" t="n"/>
-      <c r="I148" s="24" t="n"/>
+      <c r="B148" s="15" t="n"/>
+      <c r="C148" s="15" t="n"/>
+      <c r="D148" s="15" t="n"/>
+      <c r="E148" s="15" t="n"/>
+      <c r="F148" s="16" t="n"/>
+      <c r="G148" s="16" t="n"/>
+      <c r="I148" s="20" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -4793,26 +4624,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F149" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F149" s="20" t="n"/>
       <c r="G149" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H149" s="13" t="inlineStr">
+      <c r="H149" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I149" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I149" s="20" t="n"/>
     </row>
     <row r="150" ht="30" customHeight="1">
       <c r="A150" s="4" t="inlineStr">
@@ -4840,9 +4663,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="F150" s="20" t="n">
-        <v>46057</v>
-      </c>
+      <c r="F150" s="20" t="n"/>
       <c r="G150" s="4" t="inlineStr">
         <is>
           <t>Test Case 12.1: Autosave Functionality
@@ -4857,8 +4678,8 @@
 Fix the underlying sync issue — data must successfully save to the database.</t>
         </is>
       </c>
-      <c r="H150" s="14" t="n"/>
-      <c r="I150" s="16" t="n"/>
+      <c r="H150" s="18" t="n"/>
+      <c r="I150" s="20" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
@@ -4882,10 +4703,10 @@
         </is>
       </c>
       <c r="E151" s="4" t="n"/>
-      <c r="F151" s="16" t="n"/>
+      <c r="F151" s="20" t="n"/>
       <c r="G151" s="4" t="n"/>
-      <c r="H151" s="14" t="n"/>
-      <c r="I151" s="16" t="n"/>
+      <c r="H151" s="18" t="n"/>
+      <c r="I151" s="20" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
@@ -4909,10 +4730,10 @@
         </is>
       </c>
       <c r="E152" s="4" t="n"/>
-      <c r="F152" s="16" t="n"/>
+      <c r="F152" s="20" t="n"/>
       <c r="G152" s="4" t="n"/>
-      <c r="H152" s="14" t="n"/>
-      <c r="I152" s="16" t="n"/>
+      <c r="H152" s="18" t="n"/>
+      <c r="I152" s="20" t="n"/>
     </row>
     <row r="153" ht="30" customHeight="1">
       <c r="A153" s="4" t="inlineStr">
@@ -4936,10 +4757,10 @@
         </is>
       </c>
       <c r="E153" s="4" t="n"/>
-      <c r="F153" s="16" t="n"/>
+      <c r="F153" s="20" t="n"/>
       <c r="G153" s="4" t="n"/>
-      <c r="H153" s="14" t="n"/>
-      <c r="I153" s="16" t="n"/>
+      <c r="H153" s="18" t="n"/>
+      <c r="I153" s="20" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
@@ -4963,10 +4784,10 @@
         </is>
       </c>
       <c r="E154" s="4" t="n"/>
-      <c r="F154" s="16" t="n"/>
+      <c r="F154" s="20" t="n"/>
       <c r="G154" s="4" t="n"/>
-      <c r="H154" s="14" t="n"/>
-      <c r="I154" s="16" t="n"/>
+      <c r="H154" s="18" t="n"/>
+      <c r="I154" s="20" t="n"/>
     </row>
     <row r="155" ht="30" customHeight="1">
       <c r="A155" s="4" t="inlineStr">
@@ -4990,10 +4811,10 @@
         </is>
       </c>
       <c r="E155" s="4" t="n"/>
-      <c r="F155" s="16" t="n"/>
+      <c r="F155" s="20" t="n"/>
       <c r="G155" s="4" t="n"/>
-      <c r="H155" s="14" t="n"/>
-      <c r="I155" s="16" t="n"/>
+      <c r="H155" s="18" t="n"/>
+      <c r="I155" s="20" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
@@ -5017,10 +4838,10 @@
         </is>
       </c>
       <c r="E156" s="4" t="n"/>
-      <c r="F156" s="16" t="n"/>
+      <c r="F156" s="20" t="n"/>
       <c r="G156" s="4" t="n"/>
-      <c r="H156" s="14" t="n"/>
-      <c r="I156" s="16" t="n"/>
+      <c r="H156" s="18" t="n"/>
+      <c r="I156" s="20" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
@@ -5044,10 +4865,10 @@
         </is>
       </c>
       <c r="E157" s="4" t="n"/>
-      <c r="F157" s="16" t="n"/>
+      <c r="F157" s="20" t="n"/>
       <c r="G157" s="4" t="n"/>
-      <c r="H157" s="14" t="n"/>
-      <c r="I157" s="16" t="n"/>
+      <c r="H157" s="18" t="n"/>
+      <c r="I157" s="20" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
@@ -5071,10 +4892,10 @@
         </is>
       </c>
       <c r="E158" s="4" t="n"/>
-      <c r="F158" s="16" t="n"/>
+      <c r="F158" s="20" t="n"/>
       <c r="G158" s="4" t="n"/>
-      <c r="H158" s="14" t="n"/>
-      <c r="I158" s="16" t="n"/>
+      <c r="H158" s="18" t="n"/>
+      <c r="I158" s="20" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
@@ -5098,10 +4919,10 @@
         </is>
       </c>
       <c r="E159" s="4" t="n"/>
-      <c r="F159" s="16" t="n"/>
+      <c r="F159" s="20" t="n"/>
       <c r="G159" s="4" t="n"/>
-      <c r="H159" s="14" t="n"/>
-      <c r="I159" s="16" t="n"/>
+      <c r="H159" s="18" t="n"/>
+      <c r="I159" s="20" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
@@ -5125,10 +4946,10 @@
         </is>
       </c>
       <c r="E160" s="4" t="n"/>
-      <c r="F160" s="16" t="n"/>
+      <c r="F160" s="20" t="n"/>
       <c r="G160" s="4" t="n"/>
-      <c r="H160" s="14" t="n"/>
-      <c r="I160" s="16" t="n"/>
+      <c r="H160" s="18" t="n"/>
+      <c r="I160" s="20" t="n"/>
     </row>
     <row r="161" ht="17" customHeight="1">
       <c r="A161" s="4" t="inlineStr">
@@ -5152,29 +4973,28 @@
         </is>
       </c>
       <c r="E161" s="4" t="n"/>
-      <c r="F161" s="16" t="n"/>
+      <c r="F161" s="20" t="n"/>
       <c r="G161" s="4" t="n"/>
-      <c r="H161" s="14" t="n"/>
-      <c r="I161" s="16" t="n"/>
+      <c r="H161" s="18" t="n"/>
+      <c r="I161" s="20" t="n"/>
     </row>
     <row r="162" ht="17" customHeight="1">
-      <c r="F162" s="16" t="n"/>
-      <c r="I162" s="16" t="n"/>
+      <c r="F162" s="20" t="n"/>
+      <c r="I162" s="20" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="23" t="inlineStr">
+      <c r="A163" s="11" t="inlineStr">
         <is>
           <t>Section 13: Responsive / Mobile</t>
         </is>
       </c>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
-      <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
-      <c r="F163" s="22" t="n"/>
-      <c r="G163" s="22" t="n"/>
-      <c r="H163" s="22" t="n"/>
-      <c r="I163" s="24" t="n"/>
+      <c r="B163" s="15" t="n"/>
+      <c r="C163" s="15" t="n"/>
+      <c r="D163" s="15" t="n"/>
+      <c r="E163" s="15" t="n"/>
+      <c r="F163" s="16" t="n"/>
+      <c r="G163" s="16" t="n"/>
+      <c r="I163" s="20" t="n"/>
     </row>
     <row r="164" ht="30" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
@@ -5202,26 +5022,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F164" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F164" s="20" t="n"/>
       <c r="G164" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H164" s="13" t="inlineStr">
+      <c r="H164" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I164" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I164" s="20" t="n"/>
     </row>
     <row r="165" ht="30" customHeight="1">
       <c r="A165" s="4" t="inlineStr">
@@ -5245,10 +5057,10 @@
         </is>
       </c>
       <c r="E165" s="4" t="n"/>
-      <c r="F165" s="16" t="n"/>
+      <c r="F165" s="20" t="n"/>
       <c r="G165" s="4" t="n"/>
-      <c r="H165" s="14" t="n"/>
-      <c r="I165" s="16" t="n"/>
+      <c r="H165" s="18" t="n"/>
+      <c r="I165" s="20" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
@@ -5272,10 +5084,10 @@
         </is>
       </c>
       <c r="E166" s="4" t="n"/>
-      <c r="F166" s="16" t="n"/>
+      <c r="F166" s="20" t="n"/>
       <c r="G166" s="4" t="n"/>
-      <c r="H166" s="14" t="n"/>
-      <c r="I166" s="16" t="n"/>
+      <c r="H166" s="18" t="n"/>
+      <c r="I166" s="20" t="n"/>
     </row>
     <row r="167" ht="30" customHeight="1">
       <c r="A167" s="4" t="inlineStr">
@@ -5299,10 +5111,10 @@
         </is>
       </c>
       <c r="E167" s="4" t="n"/>
-      <c r="F167" s="16" t="n"/>
+      <c r="F167" s="20" t="n"/>
       <c r="G167" s="4" t="n"/>
-      <c r="H167" s="14" t="n"/>
-      <c r="I167" s="16" t="n"/>
+      <c r="H167" s="18" t="n"/>
+      <c r="I167" s="20" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
@@ -5326,10 +5138,10 @@
         </is>
       </c>
       <c r="E168" s="4" t="n"/>
-      <c r="F168" s="16" t="n"/>
+      <c r="F168" s="20" t="n"/>
       <c r="G168" s="4" t="n"/>
-      <c r="H168" s="14" t="n"/>
-      <c r="I168" s="16" t="n"/>
+      <c r="H168" s="18" t="n"/>
+      <c r="I168" s="20" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
@@ -5353,10 +5165,10 @@
         </is>
       </c>
       <c r="E169" s="4" t="n"/>
-      <c r="F169" s="16" t="n"/>
+      <c r="F169" s="20" t="n"/>
       <c r="G169" s="4" t="n"/>
-      <c r="H169" s="14" t="n"/>
-      <c r="I169" s="16" t="n"/>
+      <c r="H169" s="18" t="n"/>
+      <c r="I169" s="20" t="n"/>
     </row>
     <row r="170" ht="17" customHeight="1">
       <c r="A170" s="4" t="inlineStr">
@@ -5380,29 +5192,28 @@
         </is>
       </c>
       <c r="E170" s="4" t="n"/>
-      <c r="F170" s="16" t="n"/>
+      <c r="F170" s="20" t="n"/>
       <c r="G170" s="4" t="n"/>
-      <c r="H170" s="14" t="n"/>
-      <c r="I170" s="16" t="n"/>
+      <c r="H170" s="18" t="n"/>
+      <c r="I170" s="20" t="n"/>
     </row>
     <row r="171" ht="17" customHeight="1">
-      <c r="F171" s="16" t="n"/>
-      <c r="I171" s="16" t="n"/>
+      <c r="F171" s="20" t="n"/>
+      <c r="I171" s="20" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="23" t="inlineStr">
+      <c r="A172" s="11" t="inlineStr">
         <is>
           <t>Section 14: Edge Cases &amp; Error Handling</t>
         </is>
       </c>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
-      <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
-      <c r="F172" s="22" t="n"/>
-      <c r="G172" s="22" t="n"/>
-      <c r="H172" s="22" t="n"/>
-      <c r="I172" s="24" t="n"/>
+      <c r="B172" s="15" t="n"/>
+      <c r="C172" s="15" t="n"/>
+      <c r="D172" s="15" t="n"/>
+      <c r="E172" s="15" t="n"/>
+      <c r="F172" s="16" t="n"/>
+      <c r="G172" s="16" t="n"/>
+      <c r="I172" s="20" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
@@ -5430,26 +5241,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F173" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F173" s="20" t="n"/>
       <c r="G173" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H173" s="13" t="inlineStr">
+      <c r="H173" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I173" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I173" s="20" t="n"/>
     </row>
     <row r="174" ht="30" customHeight="1">
       <c r="A174" s="4" t="inlineStr">
@@ -5473,10 +5276,10 @@
         </is>
       </c>
       <c r="E174" s="4" t="n"/>
-      <c r="F174" s="16" t="n"/>
+      <c r="F174" s="20" t="n"/>
       <c r="G174" s="4" t="n"/>
-      <c r="H174" s="14" t="n"/>
-      <c r="I174" s="16" t="n"/>
+      <c r="H174" s="18" t="n"/>
+      <c r="I174" s="20" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
@@ -5500,10 +5303,10 @@
         </is>
       </c>
       <c r="E175" s="4" t="n"/>
-      <c r="F175" s="16" t="n"/>
+      <c r="F175" s="20" t="n"/>
       <c r="G175" s="4" t="n"/>
-      <c r="H175" s="14" t="n"/>
-      <c r="I175" s="16" t="n"/>
+      <c r="H175" s="18" t="n"/>
+      <c r="I175" s="20" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
@@ -5527,10 +5330,10 @@
         </is>
       </c>
       <c r="E176" s="4" t="n"/>
-      <c r="F176" s="16" t="n"/>
+      <c r="F176" s="20" t="n"/>
       <c r="G176" s="4" t="n"/>
-      <c r="H176" s="14" t="n"/>
-      <c r="I176" s="16" t="n"/>
+      <c r="H176" s="18" t="n"/>
+      <c r="I176" s="20" t="n"/>
     </row>
     <row r="177" ht="30" customHeight="1">
       <c r="A177" s="4" t="inlineStr">
@@ -5554,10 +5357,10 @@
         </is>
       </c>
       <c r="E177" s="4" t="n"/>
-      <c r="F177" s="16" t="n"/>
+      <c r="F177" s="20" t="n"/>
       <c r="G177" s="4" t="n"/>
-      <c r="H177" s="14" t="n"/>
-      <c r="I177" s="16" t="n"/>
+      <c r="H177" s="18" t="n"/>
+      <c r="I177" s="20" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
@@ -5581,10 +5384,10 @@
         </is>
       </c>
       <c r="E178" s="4" t="n"/>
-      <c r="F178" s="16" t="n"/>
+      <c r="F178" s="20" t="n"/>
       <c r="G178" s="4" t="n"/>
-      <c r="H178" s="14" t="n"/>
-      <c r="I178" s="16" t="n"/>
+      <c r="H178" s="18" t="n"/>
+      <c r="I178" s="20" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
@@ -5608,10 +5411,10 @@
         </is>
       </c>
       <c r="E179" s="4" t="n"/>
-      <c r="F179" s="16" t="n"/>
+      <c r="F179" s="20" t="n"/>
       <c r="G179" s="4" t="n"/>
-      <c r="H179" s="14" t="n"/>
-      <c r="I179" s="16" t="n"/>
+      <c r="H179" s="18" t="n"/>
+      <c r="I179" s="20" t="n"/>
     </row>
     <row r="180" ht="17" customHeight="1">
       <c r="A180" s="4" t="inlineStr">
@@ -5635,29 +5438,28 @@
         </is>
       </c>
       <c r="E180" s="4" t="n"/>
-      <c r="F180" s="16" t="n"/>
+      <c r="F180" s="20" t="n"/>
       <c r="G180" s="4" t="n"/>
-      <c r="H180" s="14" t="n"/>
-      <c r="I180" s="16" t="n"/>
+      <c r="H180" s="18" t="n"/>
+      <c r="I180" s="20" t="n"/>
     </row>
     <row r="181" ht="17" customHeight="1">
-      <c r="F181" s="16" t="n"/>
-      <c r="I181" s="16" t="n"/>
+      <c r="F181" s="20" t="n"/>
+      <c r="I181" s="20" t="n"/>
     </row>
     <row r="182" ht="30" customHeight="1">
-      <c r="A182" s="23" t="inlineStr">
+      <c r="A182" s="11" t="inlineStr">
         <is>
           <t>Section 15: Champion-is-Primary Logic (Output Verification)</t>
         </is>
       </c>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
-      <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
-      <c r="F182" s="22" t="n"/>
-      <c r="G182" s="22" t="n"/>
-      <c r="H182" s="22" t="n"/>
-      <c r="I182" s="24" t="n"/>
+      <c r="B182" s="15" t="n"/>
+      <c r="C182" s="15" t="n"/>
+      <c r="D182" s="15" t="n"/>
+      <c r="E182" s="15" t="n"/>
+      <c r="F182" s="16" t="n"/>
+      <c r="G182" s="16" t="n"/>
+      <c r="I182" s="20" t="n"/>
     </row>
     <row r="183" ht="30" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
@@ -5685,26 +5487,18 @@
           <t>Result</t>
         </is>
       </c>
-      <c r="F183" s="15" t="inlineStr">
-        <is>
-          <t>Date Tested</t>
-        </is>
-      </c>
+      <c r="F183" s="20" t="n"/>
       <c r="G183" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H183" s="13" t="inlineStr">
+      <c r="H183" s="17" t="inlineStr">
         <is>
           <t>Retest</t>
         </is>
       </c>
-      <c r="I183" s="15" t="inlineStr">
-        <is>
-          <t>Retest Date</t>
-        </is>
-      </c>
+      <c r="I183" s="20" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
@@ -5728,10 +5522,10 @@
         </is>
       </c>
       <c r="E184" s="4" t="n"/>
-      <c r="F184" s="16" t="n"/>
+      <c r="F184" s="20" t="n"/>
       <c r="G184" s="4" t="n"/>
-      <c r="H184" s="14" t="n"/>
-      <c r="I184" s="16" t="n"/>
+      <c r="H184" s="18" t="n"/>
+      <c r="I184" s="20" t="n"/>
     </row>
     <row r="185" ht="45" customHeight="1">
       <c r="A185" s="4" t="inlineStr">
@@ -5755,10 +5549,10 @@
         </is>
       </c>
       <c r="E185" s="4" t="n"/>
-      <c r="F185" s="16" t="n"/>
+      <c r="F185" s="20" t="n"/>
       <c r="G185" s="4" t="n"/>
-      <c r="H185" s="14" t="n"/>
-      <c r="I185" s="16" t="n"/>
+      <c r="H185" s="18" t="n"/>
+      <c r="I185" s="20" t="n"/>
     </row>
     <row r="186" ht="60" customHeight="1">
       <c r="A186" s="4" t="inlineStr">
@@ -5786,9 +5580,9 @@
           <t>Skip</t>
         </is>
       </c>
-      <c r="F186" s="16" t="n"/>
+      <c r="F186" s="20" t="n"/>
       <c r="G186" s="5" t="n"/>
-      <c r="I186" s="16" t="n"/>
+      <c r="I186" s="20" t="n"/>
     </row>
     <row r="187" ht="45" customHeight="1">
       <c r="A187" s="4" t="inlineStr">
@@ -5804,9 +5598,9 @@
       <c r="C187" s="4" t="n"/>
       <c r="D187" s="4" t="n"/>
       <c r="E187" s="4" t="n"/>
-      <c r="F187" s="16" t="n"/>
+      <c r="F187" s="20" t="n"/>
       <c r="G187" s="5" t="n"/>
-      <c r="I187" s="16" t="n"/>
+      <c r="I187" s="20" t="n"/>
     </row>
     <row r="188" ht="30" customHeight="1">
       <c r="A188" s="4" t="inlineStr">
@@ -5822,9 +5616,9 @@
       <c r="C188" s="4" t="n"/>
       <c r="D188" s="4" t="n"/>
       <c r="E188" s="4" t="n"/>
-      <c r="F188" s="16" t="n"/>
+      <c r="F188" s="20" t="n"/>
       <c r="G188" s="5" t="n"/>
-      <c r="I188" s="16" t="n"/>
+      <c r="I188" s="20" t="n"/>
     </row>
     <row r="189" ht="45" customHeight="1">
       <c r="A189" s="4" t="inlineStr">
@@ -5840,9 +5634,9 @@
       <c r="C189" s="4" t="n"/>
       <c r="D189" s="4" t="n"/>
       <c r="E189" s="4" t="n"/>
-      <c r="F189" s="16" t="n"/>
+      <c r="F189" s="20" t="n"/>
       <c r="G189" s="5" t="n"/>
-      <c r="I189" s="16" t="n"/>
+      <c r="I189" s="20" t="n"/>
     </row>
     <row r="190" ht="45" customHeight="1">
       <c r="A190" s="4" t="inlineStr">
@@ -5858,9 +5652,9 @@
       <c r="C190" s="4" t="n"/>
       <c r="D190" s="4" t="n"/>
       <c r="E190" s="4" t="n"/>
-      <c r="F190" s="16" t="n"/>
+      <c r="F190" s="20" t="n"/>
       <c r="G190" s="5" t="n"/>
-      <c r="I190" s="16" t="n"/>
+      <c r="I190" s="20" t="n"/>
     </row>
     <row r="191" ht="60" customHeight="1">
       <c r="A191" s="4" t="inlineStr">
@@ -5876,9 +5670,9 @@
       <c r="C191" s="4" t="n"/>
       <c r="D191" s="4" t="n"/>
       <c r="E191" s="4" t="n"/>
-      <c r="F191" s="16" t="n"/>
+      <c r="F191" s="20" t="n"/>
       <c r="G191" s="5" t="n"/>
-      <c r="I191" s="16" t="n"/>
+      <c r="I191" s="20" t="n"/>
     </row>
     <row r="192" ht="60" customHeight="1">
       <c r="A192" s="4" t="inlineStr">
@@ -5894,9 +5688,9 @@
       <c r="C192" s="4" t="n"/>
       <c r="D192" s="4" t="n"/>
       <c r="E192" s="4" t="n"/>
-      <c r="F192" s="16" t="n"/>
+      <c r="F192" s="20" t="n"/>
       <c r="G192" s="5" t="n"/>
-      <c r="I192" s="16" t="n"/>
+      <c r="I192" s="20" t="n"/>
     </row>
     <row r="193" ht="45" customHeight="1">
       <c r="A193" s="4" t="inlineStr">
@@ -5912,9 +5706,9 @@
       <c r="C193" s="4" t="n"/>
       <c r="D193" s="4" t="n"/>
       <c r="E193" s="4" t="n"/>
-      <c r="F193" s="16" t="n"/>
+      <c r="F193" s="20" t="n"/>
       <c r="G193" s="5" t="n"/>
-      <c r="I193" s="16" t="n"/>
+      <c r="I193" s="20" t="n"/>
     </row>
     <row r="194" ht="75" customHeight="1">
       <c r="A194" s="4" t="inlineStr">
@@ -5930,9 +5724,9 @@
       <c r="C194" s="4" t="n"/>
       <c r="D194" s="4" t="n"/>
       <c r="E194" s="4" t="n"/>
-      <c r="F194" s="16" t="n"/>
+      <c r="F194" s="20" t="n"/>
       <c r="G194" s="5" t="n"/>
-      <c r="I194" s="16" t="n"/>
+      <c r="I194" s="20" t="n"/>
     </row>
     <row r="195" ht="60" customHeight="1">
       <c r="A195" s="4" t="inlineStr">
@@ -5948,9 +5742,9 @@
       <c r="C195" s="4" t="n"/>
       <c r="D195" s="4" t="n"/>
       <c r="E195" s="4" t="n"/>
-      <c r="F195" s="16" t="n"/>
+      <c r="F195" s="20" t="n"/>
       <c r="G195" s="5" t="n"/>
-      <c r="I195" s="16" t="n"/>
+      <c r="I195" s="20" t="n"/>
     </row>
     <row r="196" ht="45" customHeight="1">
       <c r="A196" s="4" t="inlineStr">
@@ -5966,9 +5760,9 @@
       <c r="C196" s="4" t="n"/>
       <c r="D196" s="4" t="n"/>
       <c r="E196" s="4" t="n"/>
-      <c r="F196" s="16" t="n"/>
+      <c r="F196" s="20" t="n"/>
       <c r="G196" s="5" t="n"/>
-      <c r="I196" s="16" t="n"/>
+      <c r="I196" s="20" t="n"/>
     </row>
     <row r="197" ht="60" customHeight="1">
       <c r="A197" s="4" t="inlineStr">
@@ -5984,9 +5778,9 @@
       <c r="C197" s="4" t="n"/>
       <c r="D197" s="4" t="n"/>
       <c r="E197" s="4" t="n"/>
-      <c r="F197" s="16" t="n"/>
+      <c r="F197" s="20" t="n"/>
       <c r="G197" s="5" t="n"/>
-      <c r="I197" s="16" t="n"/>
+      <c r="I197" s="20" t="n"/>
     </row>
     <row r="198" ht="30" customHeight="1">
       <c r="A198" s="4" t="inlineStr">
@@ -6002,9 +5796,9 @@
       <c r="C198" s="4" t="n"/>
       <c r="D198" s="4" t="n"/>
       <c r="E198" s="4" t="n"/>
-      <c r="F198" s="16" t="n"/>
+      <c r="F198" s="20" t="n"/>
       <c r="G198" s="5" t="n"/>
-      <c r="I198" s="16" t="n"/>
+      <c r="I198" s="20" t="n"/>
     </row>
     <row r="199" ht="60" customHeight="1">
       <c r="A199" s="4" t="inlineStr">
@@ -6020,9 +5814,9 @@
       <c r="C199" s="4" t="n"/>
       <c r="D199" s="4" t="n"/>
       <c r="E199" s="4" t="n"/>
-      <c r="F199" s="16" t="n"/>
+      <c r="F199" s="20" t="n"/>
       <c r="G199" s="5" t="n"/>
-      <c r="I199" s="16" t="n"/>
+      <c r="I199" s="20" t="n"/>
     </row>
     <row r="200" ht="30" customHeight="1">
       <c r="A200" s="4" t="inlineStr">
@@ -6038,9 +5832,9 @@
       <c r="C200" s="4" t="n"/>
       <c r="D200" s="4" t="n"/>
       <c r="E200" s="4" t="n"/>
-      <c r="F200" s="16" t="n"/>
+      <c r="F200" s="20" t="n"/>
       <c r="G200" s="5" t="n"/>
-      <c r="I200" s="16" t="n"/>
+      <c r="I200" s="20" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
@@ -6056,9 +5850,9 @@
       <c r="C201" s="4" t="n"/>
       <c r="D201" s="4" t="n"/>
       <c r="E201" s="4" t="n"/>
-      <c r="F201" s="16" t="n"/>
+      <c r="F201" s="20" t="n"/>
       <c r="G201" s="5" t="n"/>
-      <c r="I201" s="16" t="n"/>
+      <c r="I201" s="20" t="n"/>
     </row>
     <row r="202" ht="30" customHeight="1">
       <c r="A202" s="4" t="inlineStr">
@@ -6074,9 +5868,9 @@
       <c r="C202" s="4" t="n"/>
       <c r="D202" s="4" t="n"/>
       <c r="E202" s="4" t="n"/>
-      <c r="F202" s="16" t="n"/>
+      <c r="F202" s="20" t="n"/>
       <c r="G202" s="5" t="n"/>
-      <c r="I202" s="16" t="n"/>
+      <c r="I202" s="20" t="n"/>
     </row>
     <row r="203" ht="30" customHeight="1">
       <c r="A203" s="4" t="inlineStr">
@@ -6088,9 +5882,9 @@
       <c r="C203" s="4" t="n"/>
       <c r="D203" s="4" t="n"/>
       <c r="E203" s="5" t="n"/>
-      <c r="F203" s="16" t="n"/>
+      <c r="F203" s="20" t="n"/>
       <c r="G203" s="5" t="n"/>
-      <c r="I203" s="16" t="n"/>
+      <c r="I203" s="20" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
@@ -6102,9 +5896,9 @@
       <c r="C204" s="4" t="n"/>
       <c r="D204" s="4" t="n"/>
       <c r="E204" s="5" t="n"/>
-      <c r="F204" s="16" t="n"/>
+      <c r="F204" s="20" t="n"/>
       <c r="G204" s="5" t="n"/>
-      <c r="I204" s="16" t="n"/>
+      <c r="I204" s="20" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
@@ -6116,45 +5910,29 @@
       <c r="C205" s="4" t="n"/>
       <c r="D205" s="4" t="n"/>
       <c r="E205" s="5" t="n"/>
-      <c r="F205" s="16" t="n"/>
+      <c r="F205" s="20" t="n"/>
       <c r="G205" s="5" t="n"/>
-      <c r="I205" s="16" t="n"/>
+      <c r="I205" s="20" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A180:I180"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="A170:I170"/>
-    <mergeCell ref="A85:I85"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A161:I161"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
-  <conditionalFormatting sqref="E8:E14 E16:E21 E23:E41 E43:E56 E58:E63 E65:E84 E86:E94 E96:E108 E110:E119 E121:E136 E138:E145 E147:E160 E162:E169 E171:E179 E181:E205">
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="0">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G14 G16:G21 G23:G41 G43:G56 G58:G63 G65:G84 G86:G94 G96:G108 G110:G119 G121:G136 G138:G145 G147:G160 G162:G169 G171:G179 G181:G203">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="1">
-      <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="0">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
+  <conditionalFormatting sqref="E8:E205">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="1">
       <formula>"PASS"</formula>
     </cfRule>
@@ -6162,11 +5940,19 @@
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G203">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation sqref="E8:E14 E16:E21 E23:E41 E43:E56 E58:E63 E65:E84 E86:E94 E96:E108 E110:E119 E121:E136 E138:E145 E147:E160 E162:E169 E171:E179 E181:E205 H17:H20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Result" prompt="Choose test result" type="list">
+    <dataValidation sqref="E8:E205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Result" prompt="Choose test result" type="list">
       <formula1>"PASS,FAIL,SKIP"</formula1>
     </dataValidation>
-    <dataValidation sqref="G8:G14 G16:G21 G23:G41 G43:G56 G58:G63 G65:G84 G86:G94 G96:G108 G110:G119 G121:G136 G138:G145 G147:G160 G162:G169 G171:G179 G181:G203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Retest" prompt="Retest result" type="list">
+    <dataValidation sqref="G8:G203" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Result" error="Please select PASS, FAIL, or SKIP" promptTitle="Retest" prompt="Retest result" type="list">
       <formula1>"PASS,FAIL,SKIP"</formula1>
     </dataValidation>
   </dataValidations>
